--- a/RS03AXPD/Omaha_Cal_Info_RS03AXPD_00001.xlsx
+++ b/RS03AXPD/Omaha_Cal_Info_RS03AXPD_00001.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="12720" windowHeight="12405" activeTab="1"/>
+    <workbookView xWindow="-12" yWindow="-12" windowWidth="12720" windowHeight="12408" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="8" r:id="rId1"/>
@@ -62,9 +62,6 @@
     <t>CC_hdg_cal</t>
   </si>
   <si>
-    <t>[335,20,65,110,155,200,245,290]</t>
-  </si>
-  <si>
     <t>CC_hx_cal</t>
   </si>
   <si>
@@ -122,9 +119,6 @@
     <t>CC_csv</t>
   </si>
   <si>
-    <t>[2.72962e-03,1.14611e-04,2.21263e-06,2.33768e02,-2.94251e-01,-5.33864e01.4.55129e00]</t>
-  </si>
-  <si>
     <t>Compute the L2 PRACSAL data product from CTD</t>
   </si>
   <si>
@@ -183,6 +177,12 @@
   </si>
   <si>
     <t>CC_depolarization_ratio</t>
+  </si>
+  <si>
+    <t>[335.0 ,20.0 ,65.0 ,110.0 ,155.0 ,200.0 ,245.0 ,290.0 ]</t>
+  </si>
+  <si>
+    <t>[2.72962e-03, 1.14611e-04, 2.21263e-06 ,2.33768e02, -2.94251e-01, -5.33864e01, 4.55129e00]</t>
   </si>
 </sst>
 </file>
@@ -367,7 +367,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -406,6 +406,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -606,7 +612,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="108" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -647,9 +653,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="95" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -720,6 +723,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="108" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="95" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="131">
     <cellStyle name="Comma 2" xfId="15"/>
@@ -1162,94 +1171,94 @@
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" style="27" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" style="27" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" style="28" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" style="29" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11" style="28" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" style="27" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="27" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.7109375" style="27" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.7109375" style="27" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.85546875" style="27"/>
+    <col min="1" max="1" width="28.5546875" style="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.44140625" style="26" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" style="26" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" style="28" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" style="27" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" style="26" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5546875" style="26" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.5546875" style="26" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5546875" style="26" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.6640625" style="26" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.6640625" style="26" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.6640625" style="26" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.88671875" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="22" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:13" s="21" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="19" t="s">
+      <c r="F1" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="G1" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="H1" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="I1" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="J1" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="K1" s="20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A2" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="B2" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="24">
+        <v>1</v>
+      </c>
+      <c r="D2" s="25">
+        <v>41861</v>
+      </c>
+      <c r="E2" s="37">
+        <v>0.24737268518518518</v>
+      </c>
+      <c r="F2" s="25"/>
+      <c r="G2" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="K1" s="21" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="23" t="s">
+      <c r="H2" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="25">
-        <v>1</v>
-      </c>
-      <c r="D2" s="26">
-        <v>41861</v>
-      </c>
-      <c r="E2" s="38">
-        <v>0.24737268518518518</v>
-      </c>
-      <c r="F2" s="26"/>
-      <c r="G2" s="30" t="s">
+      <c r="I2" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="H2" s="30" t="s">
+      <c r="J2" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="I2" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="J2" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="K2" s="25"/>
-      <c r="L2" s="36">
+      <c r="K2" s="24"/>
+      <c r="L2" s="35">
         <f>((LEFT(G2,(FIND("°",G2,1)-1)))+(MID(G2,(FIND("°",G2,1)+1),(FIND("'",G2,1))-(FIND("°",G2,1)+1))/60))*(IF(RIGHT(G2,1)="N",1,-1))</f>
         <v>45.829700000000003</v>
       </c>
-      <c r="M2" s="36">
+      <c r="M2" s="35">
         <f>((LEFT(H2,(FIND("°",H2,1)-1)))+(MID(H2,(FIND("°",H2,1)+1),(FIND("'",H2,1))-(FIND("°",H2,1)+1))/60))*(IF(RIGHT(H2,1)="E",1,-1))</f>
         <v>-129.75903166666666</v>
       </c>
@@ -1264,45 +1273,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="82.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.42578125" customWidth="1"/>
+    <col min="1" max="1" width="29.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" customWidth="1"/>
+    <col min="4" max="4" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="82.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="C1" s="33" t="s">
+      <c r="B1" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="E1" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="34" t="s">
+      <c r="F1" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="35" t="s">
+      <c r="G1" s="34" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -1325,7 +1334,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>0</v>
       </c>
@@ -1346,7 +1355,7 @@
       </c>
       <c r="G4" s="6"/>
     </row>
-    <row r="5" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="10"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
@@ -1354,10 +1363,10 @@
       <c r="E5" s="10"/>
       <c r="F5" s="11"/>
       <c r="G5" s="11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>1</v>
       </c>
@@ -1380,7 +1389,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>1</v>
       </c>
@@ -1401,7 +1410,7 @@
       </c>
       <c r="G7" s="6"/>
     </row>
-    <row r="8" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>1</v>
       </c>
@@ -1414,15 +1423,15 @@
       <c r="D8" s="9">
         <v>1130</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="42" t="s">
         <v>14</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="G8" s="6"/>
     </row>
-    <row r="9" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>1</v>
       </c>
@@ -1436,14 +1445,14 @@
         <v>1130</v>
       </c>
       <c r="E9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="G9" s="6"/>
     </row>
-    <row r="10" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>1</v>
       </c>
@@ -1457,14 +1466,14 @@
         <v>1130</v>
       </c>
       <c r="E10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="12" t="s">
-        <v>19</v>
-      </c>
       <c r="G10" s="6"/>
     </row>
-    <row r="11" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="10"/>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
@@ -1473,184 +1482,184 @@
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
     </row>
-    <row r="12" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="6">
+        <v>1</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="6">
-        <v>1</v>
-      </c>
-      <c r="D12" s="5" t="s">
+      <c r="E12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="F12" s="36">
+        <v>0</v>
+      </c>
+      <c r="G12" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="37">
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="6">
+        <v>1</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="36">
         <v>0</v>
       </c>
-      <c r="G12" s="13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A13" s="8" t="s">
+      <c r="G13" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="6">
+        <v>1</v>
+      </c>
+      <c r="D14" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="6">
-        <v>1</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" s="1" t="s">
+      <c r="E14" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="F13" s="37">
-        <v>0</v>
-      </c>
-      <c r="G13" s="13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="6">
-        <v>1</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="F14" s="2">
         <v>1.21E-2</v>
       </c>
       <c r="G14" s="6"/>
     </row>
-    <row r="15" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="6">
+        <v>1</v>
+      </c>
+      <c r="D15" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="6">
-        <v>1</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>21</v>
-      </c>
       <c r="E15" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F15" s="3">
         <v>49</v>
       </c>
       <c r="G15" s="6"/>
     </row>
-    <row r="16" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="6">
+        <v>1</v>
+      </c>
+      <c r="D16" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="6">
-        <v>1</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>21</v>
-      </c>
       <c r="E16" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F16" s="3">
         <v>117</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="6">
+        <v>1</v>
+      </c>
+      <c r="D17" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="6">
-        <v>1</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>21</v>
-      </c>
       <c r="E17" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F17" s="3">
         <v>700</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="6">
+        <v>1</v>
+      </c>
+      <c r="D18" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="6">
-        <v>1</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>21</v>
-      </c>
       <c r="E18" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F18" s="3">
         <v>1.08</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="6">
+        <v>1</v>
+      </c>
+      <c r="D19" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="6">
-        <v>1</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>21</v>
-      </c>
       <c r="E19" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F19" s="3">
         <v>3.9E-2</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H19" s="15"/>
       <c r="I19" s="15"/>
@@ -1658,7 +1667,7 @@
       <c r="K19" s="15"/>
       <c r="L19" s="15"/>
     </row>
-    <row r="20" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="8"/>
       <c r="B20" s="9"/>
       <c r="C20" s="6"/>
@@ -1672,21 +1681,21 @@
       <c r="K20" s="15"/>
       <c r="L20" s="15"/>
     </row>
-    <row r="21" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="6">
+        <v>1</v>
+      </c>
+      <c r="D21" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" s="6">
-        <v>1</v>
-      </c>
-      <c r="D21" s="5" t="s">
+      <c r="E21" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="F21" s="12">
         <v>3.0099999999999998E-2</v>
@@ -1695,28 +1704,28 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="6">
+        <v>1</v>
+      </c>
+      <c r="D22" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="6">
-        <v>1</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>30</v>
-      </c>
       <c r="E22" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F22" s="12">
         <v>46</v>
       </c>
       <c r="G22" s="6"/>
     </row>
-    <row r="23" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="10"/>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
@@ -1725,7 +1734,7 @@
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
     </row>
-    <row r="24" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>2</v>
       </c>
@@ -1748,7 +1757,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
         <v>2</v>
       </c>
@@ -1768,10 +1777,10 @@
         <v>-129.75903166666666</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="8" t="s">
         <v>2</v>
       </c>
@@ -1784,33 +1793,33 @@
       <c r="D26" s="9">
         <v>125</v>
       </c>
-      <c r="E26" s="16" t="s">
-        <v>34</v>
+      <c r="E26" s="43" t="s">
+        <v>33</v>
       </c>
       <c r="F26" s="13" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="G26" s="6"/>
       <c r="H26" s="15"/>
       <c r="I26" s="15"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="G27" s="6"/>
       <c r="H27" s="15"/>
       <c r="I27" s="15"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="39"/>
+    <row r="28" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A28" s="38"/>
       <c r="B28" s="5"/>
       <c r="C28" s="6"/>
       <c r="F28" s="10"/>
-      <c r="G28" s="40" t="s">
-        <v>51</v>
-      </c>
-      <c r="H28" s="41"/>
-      <c r="I28" s="42"/>
-      <c r="J28" s="42"/>
-      <c r="K28" s="42"/>
+      <c r="G28" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="H28" s="40"/>
+      <c r="I28" s="41"/>
+      <c r="J28" s="41"/>
+      <c r="K28" s="41"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
